--- a/Files/Vaccine_February 16, 2010.xlsx
+++ b/Files/Vaccine_February 16, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="225">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Kinrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$32.25</t>
@@ -104,6 +104,9 @@
     <t xml:space="preserve">$48.00</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes </t>
+  </si>
+  <si>
     <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t xml:space="preserve">$75.33</t>
   </si>
   <si>
+    <t xml:space="preserve">DTaP-Hib </t>
+  </si>
+  <si>
     <t xml:space="preserve">TriHIBit</t>
   </si>
   <si>
@@ -158,7 +164,7 @@
     <t xml:space="preserve">10-pack - 1 dose syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B </t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -188,15 +194,15 @@
     <t xml:space="preserve">Havrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 10 pack - 1 dose T-L syringes. No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$12.75</t>
   </si>
   <si>
     <t xml:space="preserve">$28.74</t>
   </si>
   <si>
+    <t xml:space="preserve">10 pack - 1 dose T-L syringes. No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -227,7 +233,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -314,7 +320,7 @@
     <t xml:space="preserve">$48.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -377,7 +383,7 @@
     <t xml:space="preserve">DECAVAC</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes No Needle 10 pack - 1 dose vials </t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle </t>
   </si>
   <si>
     <t xml:space="preserve">$18.17</t>
@@ -398,27 +404,27 @@
     <t xml:space="preserve">BOOSTRIX</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose TL syringes, No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$28.54</t>
   </si>
   <si>
     <t xml:space="preserve">$37.55</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose TL syringes, No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">ADACEL</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose BD Leur-Lok syringes </t>
-  </si>
-  <si>
     <t xml:space="preserve">$27.52</t>
   </si>
   <si>
     <t xml:space="preserve">$37.43</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose BD Leur-Lok syringes </t>
+  </si>
+  <si>
     <t xml:space="preserve">Varicella </t>
   </si>
   <si>
@@ -480,9 +486,6 @@
   </si>
   <si>
     <t xml:space="preserve">$21.345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetanus  DiphtheriaToxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids
@@ -532,7 +535,7 @@
     <t xml:space="preserve">Zostavax</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vial 1 pack-single dose 0.65mL vials </t>
+    <t xml:space="preserve">10 pack - 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$105.943</t>
@@ -541,13 +544,16 @@
     <t xml:space="preserve">$153.93</t>
   </si>
   <si>
+    <t xml:space="preserve">1 pack-single dose 0.65mL vials </t>
+  </si>
+  <si>
     <t xml:space="preserve">$116.70</t>
   </si>
   <si>
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -559,7 +565,7 @@
     <t xml:space="preserve">$9.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -576,7 +582,7 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">$10.31</t>
@@ -612,7 +618,7 @@
     <t xml:space="preserve">$11.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age 2-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist
@@ -1007,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1027,10 +1033,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1039,10 +1045,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>40268</v>
@@ -1056,10 +1062,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1068,10 +1074,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>40268</v>
@@ -1085,22 +1091,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1">
         <v>40268</v>
@@ -1114,22 +1120,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1">
         <v>40268</v>
@@ -1143,22 +1149,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1">
         <v>40268</v>
@@ -1172,22 +1178,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1">
         <v>40268</v>
@@ -1201,10 +1207,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1213,16 +1219,16 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1">
         <v>40268</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -1230,10 +1236,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1242,16 +1248,16 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>40268</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1259,22 +1265,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1">
         <v>40268</v>
@@ -1288,22 +1294,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1">
         <v>40268</v>
@@ -1317,10 +1323,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1329,10 +1335,10 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1">
         <v>40268</v>
@@ -1346,22 +1352,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1">
         <v>40268</v>
@@ -1375,10 +1381,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1387,10 +1393,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1">
         <v>40268</v>
@@ -1404,22 +1410,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
       <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1">
         <v>40268</v>
@@ -1433,10 +1439,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1445,16 +1451,16 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G22" s="1">
         <v>40268</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1462,10 +1468,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1474,16 +1480,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G23" s="1">
         <v>40268</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1491,22 +1497,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G24" s="1">
         <v>40268</v>
@@ -1520,10 +1526,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1532,10 +1538,10 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G25" s="1">
         <v>40268</v>
@@ -1549,10 +1555,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1561,16 +1567,16 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G26" s="1">
         <v>40268</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1578,10 +1584,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1590,16 +1596,16 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G27" s="1">
         <v>40268</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1607,22 +1613,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G28" s="1">
         <v>40268</v>
@@ -1636,10 +1642,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1648,16 +1654,16 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G29" s="1">
         <v>40268</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1665,28 +1671,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G30" s="1">
         <v>40268</v>
       </c>
       <c r="H30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1694,10 +1700,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1706,16 +1712,16 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G31" s="1">
         <v>40268</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1723,28 +1729,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G32" s="1">
         <v>40268</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1752,10 +1758,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1764,10 +1770,10 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G33" s="1">
         <v>40268</v>
@@ -1781,22 +1787,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G34" s="1">
         <v>40268</v>
@@ -1810,22 +1816,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G35" s="1">
         <v>40268</v>
@@ -1839,10 +1845,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1851,7 +1857,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1860,7 +1866,7 @@
         <v>40268</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1868,22 +1874,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G37" s="1">
         <v>40268</v>
@@ -1897,22 +1903,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G38" s="1">
         <v>40268</v>
@@ -1926,22 +1932,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G39" s="1">
         <v>40268</v>
@@ -1955,22 +1961,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G40" s="1">
         <v>40268</v>
@@ -1984,10 +1990,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -1996,16 +2002,16 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G41" s="1">
         <v>40268</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -2058,10 +2064,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2070,10 +2076,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G2" s="1">
         <v>40359</v>
@@ -2087,22 +2093,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G3" s="1">
         <v>40359</v>
@@ -2116,10 +2122,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2128,10 +2134,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1">
         <v>40359</v>
@@ -2145,22 +2151,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1">
         <v>40359</v>
@@ -2174,10 +2180,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2186,10 +2192,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G6" s="1">
         <v>40359</v>
@@ -2203,22 +2209,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G7" s="1">
         <v>40359</v>
@@ -2232,10 +2238,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2244,16 +2250,16 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" s="1">
         <v>40359</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2261,10 +2267,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2273,16 +2279,16 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1">
         <v>40359</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2290,28 +2296,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G10" s="1">
         <v>40359</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -2319,28 +2325,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G11" s="1">
         <v>40359</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -2348,10 +2354,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -2363,13 +2369,13 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G12" s="1">
         <v>40359</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -2377,10 +2383,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -2398,7 +2404,7 @@
         <v>40359</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -2406,10 +2412,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2418,10 +2424,10 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G14" s="1">
         <v>40359</v>
@@ -2435,22 +2441,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
         <v>162</v>
       </c>
-      <c r="E15" t="s">
-        <v>161</v>
-      </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G15" s="1">
         <v>40359</v>
@@ -2464,22 +2470,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G16" s="1">
         <v>40359</v>
@@ -2493,22 +2499,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" t="s">
         <v>166</v>
       </c>
-      <c r="E17" t="s">
-        <v>165</v>
-      </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G17" s="1">
         <v>40359</v>
@@ -2522,10 +2528,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2534,16 +2540,16 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G18" s="1">
         <v>40359</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -2551,28 +2557,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G19" s="1">
         <v>40359</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -2580,28 +2586,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G20" s="1">
         <v>40359</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -2654,22 +2660,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G2" s="1">
         <v>40237</v>
@@ -2683,22 +2689,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G3" s="1">
         <v>40237</v>
@@ -2712,22 +2718,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G4" s="1">
         <v>40237</v>
@@ -2741,10 +2747,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2753,10 +2759,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G5" s="1">
         <v>40237</v>
@@ -2770,28 +2776,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1">
         <v>40237</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -2799,28 +2805,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G7" s="1">
         <v>40237</v>
       </c>
       <c r="H7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -2828,28 +2834,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G8" s="1">
         <v>40237</v>
       </c>
       <c r="H8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2902,22 +2908,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G2" s="1">
         <v>40237</v>
@@ -2931,22 +2937,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G3" s="1">
         <v>40237</v>
@@ -2960,10 +2966,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2972,10 +2978,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G4" s="1">
         <v>40237</v>
@@ -2989,28 +2995,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1">
         <v>40237</v>
       </c>
       <c r="H5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -3018,28 +3024,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G6" s="1">
         <v>40237</v>
       </c>
       <c r="H6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -3047,19 +3053,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -3076,22 +3082,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G8" s="1">
         <v>40237</v>
@@ -3105,28 +3111,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G9" s="1">
         <v>40237</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -3134,28 +3140,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G10" s="1">
         <v>40237</v>
       </c>
       <c r="H10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>

--- a/Files/Vaccine_February 16, 2010.xlsx
+++ b/Files/Vaccine_February 16, 2010.xlsx
@@ -488,9 +488,7 @@
     <t xml:space="preserve">$21.345</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids
-Adsorbed for Adults
-No Preservative</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids Adsorbed for Adults No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$18.23</t>
@@ -568,9 +566,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
@@ -621,8 +617,7 @@
     <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose sprayers</t>
@@ -688,8 +683,7 @@
     <t xml:space="preserve">$8.00</t>
   </si>
   <si>
-    <t xml:space="preserve">CSL
-Biotherapies</t>
+    <t xml:space="preserve">CSL Biotherapies</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria</t>
